--- a/Deathlord-Relorded/Assets/MonsterList.xlsx
+++ b/Deathlord-Relorded/Assets/MonsterList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Deathlord-Relorded\Deathlord-Relorded\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C985DD-38BC-41EE-A9BD-C782C35C36A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8993B082-BD0A-4A72-AE7D-4304B6EF297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="840" windowWidth="33210" windowHeight="14670" xr2:uid="{43328EA1-51EB-462D-9C33-E11CD92C59BB}"/>
+    <workbookView xWindow="-25425" yWindow="1665" windowWidth="23820" windowHeight="11295" xr2:uid="{43328EA1-51EB-462D-9C33-E11CD92C59BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -574,6 +574,66 @@
   </si>
   <si>
     <t>centering spaces</t>
+  </si>
+  <si>
+    <t>English Name</t>
+  </si>
+  <si>
+    <t>UNDEAD KNIGHT</t>
+  </si>
+  <si>
+    <t>DARK ELVES</t>
+  </si>
+  <si>
+    <t>ELVES</t>
+  </si>
+  <si>
+    <t>PALADINS</t>
+  </si>
+  <si>
+    <t>DARK KNIGHTS</t>
+  </si>
+  <si>
+    <t>MONKS</t>
+  </si>
+  <si>
+    <t>FIGHTERS</t>
+  </si>
+  <si>
+    <t>RANGERS</t>
+  </si>
+  <si>
+    <t>BERZERKERS</t>
+  </si>
+  <si>
+    <t>ASSASSINS</t>
+  </si>
+  <si>
+    <t>PRIESTS</t>
+  </si>
+  <si>
+    <t>DRUIDS</t>
+  </si>
+  <si>
+    <t>WIZARDS</t>
+  </si>
+  <si>
+    <t>ILLUSIONISTS</t>
+  </si>
+  <si>
+    <t>DWARVES</t>
+  </si>
+  <si>
+    <t>BARBARIANS</t>
+  </si>
+  <si>
+    <t>THIEVES</t>
+  </si>
+  <si>
+    <t>HALFLINGS</t>
+  </si>
+  <si>
+    <t>PEASANTS</t>
   </si>
 </sst>
 </file>
@@ -629,13 +689,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A5160FE-2663-4D7B-8959-2573B9A3D494}" name="Table1" displayName="Table1" ref="A1:K132" totalsRowShown="0">
-  <autoFilter ref="A1:K132" xr:uid="{2A5160FE-2663-4D7B-8959-2573B9A3D494}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
-    <sortCondition descending="1" ref="C1:C132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A5160FE-2663-4D7B-8959-2573B9A3D494}" name="Table1" displayName="Table1" ref="A1:L132" totalsRowShown="0">
+  <autoFilter ref="A1:L132" xr:uid="{2A5160FE-2663-4D7B-8959-2573B9A3D494}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L132">
+    <sortCondition descending="1" ref="D1:D132"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{30D1CA4C-8297-4E21-9B15-AA0663395640}" name="Name"/>
+    <tableColumn id="12" xr3:uid="{318872E1-B12A-45FE-B74A-9ABBD4C44231}" name="English Name"/>
     <tableColumn id="2" xr3:uid="{945D6330-5C8D-428C-AD0B-3068982B24A6}" name="Enemy type"/>
     <tableColumn id="3" xr3:uid="{B41E1550-4122-409A-898F-6C2DED1E2063}" name="TH0"/>
     <tableColumn id="4" xr3:uid="{13212066-41E4-46AC-966D-4141C5E883FD}" name="Avg HP"/>
@@ -948,4642 +1009,5038 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA8B1B9-2A7F-4EA4-ABE6-9CAAEF7D8E25}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection sqref="A1:K132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>178</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>179</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>31</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>108</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>32</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>53</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
         <v>153</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>139.5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-6</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>54</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>172</v>
       </c>
       <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
         <v>173</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>31</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>139.5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-10</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>48</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>73</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
         <v>173</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>139.5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-21</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>127</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
         <v>153</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>135</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>57</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
       <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
         <v>153</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>29</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>130.5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>26</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>60</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
       <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>28</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>139.5</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>32</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>46</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
       <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>99</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-1</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>50</v>
       </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
       <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
         <v>153</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>126</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-4</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>24</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>58</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>139.5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>20</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>52</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>24</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>126</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-4</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>24</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>43</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>90</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>40</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>108</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>24</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>52</v>
       </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
       <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>24</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>139.5</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-4</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>32</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>53</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
       <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>24</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-6</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>31</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>54</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>90</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-1</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>46</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>108</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-4</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>32</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>44</v>
       </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>72</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>37</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>72</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>37</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>67.5</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>22</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>27</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
       <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>16</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>72</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>24</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>38</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>105</v>
       </c>
       <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
         <v>102</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>16</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>90</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>28</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>39</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>16</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>45</v>
       </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
       <c r="F24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>14</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>21</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>138</v>
       </c>
       <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>16</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>81</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>16</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>27</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>145</v>
       </c>
       <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>16</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>72</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-2</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>20</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>37</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
       <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>15</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>63</v>
       </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>32</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>27</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>167</v>
       </c>
       <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
         <v>153</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>15</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>54</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
         <v>16</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>26</v>
       </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>14</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>63</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
       <c r="G29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>16</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>25</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>14</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>63</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
       <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
         <v>8</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>24</v>
       </c>
       <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
       <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
         <v>102</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>72</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>24</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>35</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
       <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>14</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>81</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>24</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>36</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>14</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>45</v>
       </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
       <c r="F33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>15</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>23</v>
       </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>165</v>
       </c>
       <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
         <v>153</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>14</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>49.5</v>
       </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>18</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>21</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>166</v>
       </c>
       <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
         <v>153</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>14</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>49.5</v>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
       <c r="F35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>20</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>26</v>
       </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>162</v>
       </c>
       <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>45</v>
       </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
         <v>16</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>22</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
       <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
         <v>61</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>12</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>54</v>
       </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
       <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
         <v>8</v>
       </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>16</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>22</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
       <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>12</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>54</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
       <c r="G38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
         <v>16</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>31</v>
       </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
       <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
         <v>72</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>12</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>45</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>16</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>33</v>
       </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
         <v>12</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>63</v>
       </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
       <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
         <v>5</v>
       </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
         <v>15</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>32</v>
       </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
         <v>12</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>54</v>
       </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>12</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>25</v>
       </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>147</v>
       </c>
       <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>12</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>72</v>
       </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>24</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>29</v>
       </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
       <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>12</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>72</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>24</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>28</v>
       </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>161</v>
       </c>
       <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
         <v>153</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>12</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>45</v>
       </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
       <c r="F44">
         <v>4</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>20</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>21</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>159</v>
       </c>
       <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" t="s">
         <v>153</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>11</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>40.5</v>
       </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>16</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>19</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
         <v>54</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>16</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>16</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>19</v>
       </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
         <v>54</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>16</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>16</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>19</v>
       </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
         <v>45</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-2</v>
       </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
       <c r="G48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>14</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>22</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>36</v>
       </c>
       <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
         <v>37</v>
       </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
       <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
         <v>72</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>24</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>26</v>
       </c>
-      <c r="J49">
-        <v>3</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
         <v>45</v>
       </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
       <c r="F50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>16</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>26</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
       <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
       <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
         <v>72</v>
       </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
       <c r="F51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>32</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>27</v>
       </c>
-      <c r="J51">
-        <v>3</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
       <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
       <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
         <v>45</v>
       </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
       <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <v>16</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>20</v>
       </c>
-      <c r="J52">
-        <v>2</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>85</v>
       </c>
       <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
         <v>72</v>
       </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
       <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
         <v>18</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>-10</v>
       </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
       <c r="G53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>20</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>25</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>101</v>
       </c>
       <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
         <v>102</v>
       </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
       <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
         <v>36</v>
       </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>20</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>28</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
         <v>72</v>
       </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
       <c r="F55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>24</v>
       </c>
       <c r="J55">
+        <v>24</v>
+      </c>
+      <c r="K55">
         <v>0</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
         <v>72</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>5</v>
       </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
       <c r="G56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>28</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>24</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>126</v>
       </c>
       <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
         <v>37</v>
       </c>
-      <c r="C57">
-        <v>10</v>
-      </c>
       <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
         <v>27</v>
       </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
       <c r="F57">
         <v>4</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
         <v>19</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
         <v>36</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>5</v>
       </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
       <c r="G58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>24</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>19</v>
       </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>146</v>
       </c>
       <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
         <v>37</v>
       </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
       <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
         <v>72</v>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
       <c r="F59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>16</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>23</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>0</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>155</v>
       </c>
       <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
         <v>153</v>
       </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
       <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
         <v>40.5</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>5</v>
       </c>
-      <c r="F60">
-        <v>6</v>
-      </c>
       <c r="G60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>20</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>22</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
         <v>72</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>9</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>40.5</v>
       </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
       <c r="F61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>18</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>25</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>0</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
         <v>9</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>90</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>20</v>
       </c>
       <c r="J62">
-        <v>3</v>
-      </c>
-      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
         <v>9</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>72</v>
       </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>20</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>17</v>
       </c>
-      <c r="J63">
-        <v>3</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>154</v>
       </c>
       <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
         <v>153</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>9</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>36</v>
       </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
       <c r="F64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
         <v>21</v>
       </c>
-      <c r="J64">
-        <v>2</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
         <v>8</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>18</v>
       </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
       <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
         <v>12</v>
       </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>8</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>17</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
         <v>61</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>8</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>36</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>5</v>
       </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
       <c r="G66">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>16</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>17</v>
       </c>
-      <c r="J66">
-        <v>3</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
         <v>72</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>8</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>36</v>
       </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
       <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
         <v>8</v>
       </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
       <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
         <v>16</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>18</v>
       </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
       <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
         <v>72</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>8</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>45</v>
       </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
       <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
         <v>8</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>24</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>22</v>
       </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>99</v>
       </c>
       <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
         <v>37</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>8</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>45</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>5</v>
       </c>
-      <c r="F69">
-        <v>6</v>
-      </c>
       <c r="G69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
         <v>12</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>17</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
         <v>8</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>36</v>
       </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
       <c r="F70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
         <v>17</v>
       </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>110</v>
       </c>
       <c r="B71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" t="s">
         <v>37</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>8</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>45</v>
       </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
       <c r="F71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>8</v>
       </c>
       <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
         <v>19</v>
       </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72">
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
         <v>8</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>36</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>5</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
         <v>20</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>17</v>
       </c>
-      <c r="J72">
-        <v>2</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73">
         <v>8</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>36</v>
       </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
       <c r="F73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
         <v>8</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>16</v>
       </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>141</v>
       </c>
       <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
         <v>37</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>8</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>45</v>
       </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
       <c r="F74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>20</v>
       </c>
       <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
       <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
         <v>37</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>27</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>5</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>8</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
       <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
         <v>16</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>17</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>0</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>152</v>
       </c>
       <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
         <v>153</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>8</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>36</v>
       </c>
-      <c r="E76">
-        <v>6</v>
-      </c>
       <c r="F76">
         <v>6</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>16</v>
       </c>
       <c r="J76">
+        <v>16</v>
+      </c>
+      <c r="K76">
         <v>0</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
         <v>7</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>22.5</v>
       </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
       <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
         <v>8</v>
       </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>14</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>19</v>
       </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
         <v>72</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>7</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>31.5</v>
       </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
       <c r="F78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>16</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>21</v>
       </c>
-      <c r="J78">
-        <v>2</v>
-      </c>
-      <c r="K78" t="s">
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79">
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
         <v>7</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>40.5</v>
       </c>
-      <c r="E79">
-        <v>4</v>
-      </c>
       <c r="F79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
         <v>16</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>19</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
       </c>
       <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
         <v>22.5</v>
       </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
       <c r="F80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
         <v>8</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>17</v>
       </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81">
-        <v>6</v>
+        <v>183</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
       </c>
       <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
         <v>13.5</v>
       </c>
-      <c r="E81">
-        <v>6</v>
-      </c>
       <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
         <v>12</v>
       </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
       <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
         <v>5</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>11</v>
       </c>
-      <c r="J81">
-        <v>3</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
       </c>
       <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82">
         <v>27</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>7</v>
       </c>
-      <c r="F82">
-        <v>6</v>
-      </c>
       <c r="G82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
         <v>20</v>
       </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
       </c>
       <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
         <v>36</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>7</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>8</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
       <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
         <v>14</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>15</v>
       </c>
-      <c r="J83">
-        <v>3</v>
-      </c>
-      <c r="K83" t="s">
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>67</v>
       </c>
       <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
         <v>61</v>
       </c>
-      <c r="C84">
-        <v>6</v>
-      </c>
       <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
         <v>45</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>5</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>8</v>
       </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
         <v>8</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>16</v>
       </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
       </c>
       <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
         <v>36</v>
       </c>
-      <c r="E85">
-        <v>4</v>
-      </c>
       <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
         <v>8</v>
       </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
       <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
         <v>14</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>16</v>
       </c>
-      <c r="J85">
-        <v>4</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
       <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
         <v>72</v>
       </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
       <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
         <v>27</v>
       </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
       <c r="F86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>15</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>20</v>
       </c>
-      <c r="J86">
-        <v>2</v>
-      </c>
-      <c r="K86" t="s">
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
       </c>
       <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
         <v>36</v>
       </c>
-      <c r="E87">
-        <v>6</v>
-      </c>
       <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
         <v>8</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>13</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>14</v>
       </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87" t="s">
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>120</v>
       </c>
       <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
         <v>37</v>
       </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
       <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
         <v>45</v>
       </c>
-      <c r="E88">
-        <v>6</v>
-      </c>
       <c r="F88">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
         <v>18</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>0</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>131</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
       </c>
       <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
         <v>45</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>7</v>
       </c>
-      <c r="F89">
-        <v>4</v>
-      </c>
       <c r="G89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>12</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>15</v>
       </c>
-      <c r="J89">
-        <v>2</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>136</v>
       </c>
       <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
         <v>37</v>
       </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
       <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
         <v>27</v>
       </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
       <c r="F90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>15</v>
       </c>
       <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>140</v>
       </c>
       <c r="B91" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" t="s">
         <v>37</v>
       </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
       <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
         <v>18</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="F91">
-        <v>6</v>
-      </c>
       <c r="G91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>8</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>16</v>
       </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>143</v>
       </c>
       <c r="B92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" t="s">
         <v>37</v>
       </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
       <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
         <v>72</v>
       </c>
-      <c r="E92">
-        <v>10</v>
-      </c>
       <c r="F92">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>4</v>
       </c>
       <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
         <v>8</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>17</v>
       </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
       </c>
       <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
         <v>22.5</v>
       </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
       <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
         <v>8</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>12</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>14</v>
       </c>
-      <c r="J93">
-        <v>3</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>175</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94">
-        <v>6</v>
+        <v>175</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
       </c>
       <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
         <v>27</v>
       </c>
-      <c r="E94">
-        <v>6</v>
-      </c>
       <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94">
         <v>15</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
       <c r="H94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J94">
-        <v>2</v>
-      </c>
-      <c r="K94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
         <v>5</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>22.5</v>
       </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
       <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
         <v>8</v>
       </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
       <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>12</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>14</v>
       </c>
-      <c r="J95">
-        <v>3</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
         <v>5</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>22.5</v>
       </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
       <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
         <v>8</v>
       </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
       <c r="H96">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>14</v>
       </c>
       <c r="J96">
-        <v>3</v>
-      </c>
-      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
         <v>5</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>18</v>
       </c>
-      <c r="E97">
-        <v>4</v>
-      </c>
       <c r="F97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
         <v>16</v>
       </c>
-      <c r="J97">
-        <v>2</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98">
+        <v>46</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
         <v>5</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>18</v>
       </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
       <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
         <v>15</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
       <c r="H98">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
         <v>12</v>
       </c>
-      <c r="J98">
-        <v>2</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>76</v>
       </c>
       <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
         <v>72</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>5</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>22.5</v>
       </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
       <c r="F99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>8</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>17</v>
       </c>
-      <c r="J99">
-        <v>2</v>
-      </c>
-      <c r="K99" t="s">
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100">
+        <v>132</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
         <v>5</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>13.5</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>9</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>8</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
       <c r="H100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100">
         <v>9</v>
       </c>
-      <c r="J100">
-        <v>2</v>
-      </c>
-      <c r="K100" t="s">
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
+        <v>187</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
       </c>
       <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
         <v>22.5</v>
       </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
       <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
         <v>12</v>
       </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
         <v>12</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>13</v>
       </c>
-      <c r="J101">
-        <v>3</v>
-      </c>
-      <c r="K101" t="s">
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102">
-        <v>4</v>
+        <v>188</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
       </c>
       <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
         <v>22.5</v>
       </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
       <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102">
         <v>8</v>
       </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
       <c r="H102">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102">
         <v>11</v>
       </c>
-      <c r="J102">
-        <v>3</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103">
-        <v>4</v>
+        <v>189</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
       </c>
       <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
         <v>22.5</v>
       </c>
-      <c r="E103">
-        <v>6</v>
-      </c>
       <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103">
         <v>14</v>
       </c>
-      <c r="G103">
-        <v>2</v>
-      </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>8</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>12</v>
       </c>
-      <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103" t="s">
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104">
-        <v>4</v>
+        <v>190</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
       </c>
       <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
         <v>13.5</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>5</v>
       </c>
-      <c r="F104">
-        <v>10</v>
-      </c>
       <c r="G104">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>8</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>11</v>
       </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" t="s">
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105">
-        <v>4</v>
+        <v>191</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
       </c>
       <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
         <v>13.5</v>
       </c>
-      <c r="E105">
-        <v>4</v>
-      </c>
       <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
         <v>8</v>
       </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>8</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>16</v>
       </c>
-      <c r="J105">
-        <v>3</v>
-      </c>
-      <c r="K105" t="s">
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106">
-        <v>4</v>
+        <v>192</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
       </c>
       <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
         <v>13.5</v>
       </c>
-      <c r="E106">
-        <v>6</v>
-      </c>
       <c r="F106">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
         <v>8</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>15</v>
       </c>
-      <c r="J106">
-        <v>3</v>
-      </c>
-      <c r="K106" t="s">
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
+        <v>193</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
       </c>
       <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
         <v>9</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>7</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>8</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
       <c r="H107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I107">
+        <v>4</v>
+      </c>
+      <c r="J107">
         <v>9</v>
       </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107" t="s">
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108">
-        <v>4</v>
+        <v>194</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
       </c>
       <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
         <v>9</v>
       </c>
-      <c r="E108">
-        <v>4</v>
-      </c>
       <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
         <v>8</v>
       </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
       <c r="H108">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108">
         <v>11</v>
       </c>
-      <c r="J108">
-        <v>3</v>
-      </c>
-      <c r="K108" t="s">
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109">
-        <v>4</v>
+        <v>195</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
       </c>
       <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
         <v>31.5</v>
       </c>
-      <c r="E109">
-        <v>4</v>
-      </c>
       <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
         <v>12</v>
       </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
       <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
         <v>8</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>14</v>
       </c>
-      <c r="J109">
-        <v>3</v>
-      </c>
-      <c r="K109" t="s">
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
       <c r="B110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" t="s">
         <v>72</v>
       </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
       <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
         <v>18</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>7</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>12</v>
       </c>
-      <c r="G110">
-        <v>2</v>
-      </c>
       <c r="H110">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I110">
+        <v>6</v>
+      </c>
+      <c r="J110">
         <v>13</v>
       </c>
-      <c r="J110">
-        <v>3</v>
-      </c>
-      <c r="K110" t="s">
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>97</v>
       </c>
       <c r="B111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" t="s">
         <v>37</v>
       </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
       <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
         <v>4.5</v>
       </c>
-      <c r="E111">
-        <v>10</v>
-      </c>
       <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
         <v>8</v>
       </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
       <c r="H111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I111">
+        <v>4</v>
+      </c>
+      <c r="J111">
         <v>7</v>
       </c>
-      <c r="J111">
-        <v>3</v>
-      </c>
-      <c r="K111" t="s">
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>100</v>
       </c>
       <c r="B112" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" t="s">
         <v>37</v>
       </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
       <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
         <v>22.5</v>
       </c>
-      <c r="E112">
-        <v>3</v>
-      </c>
       <c r="F112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>8</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>13</v>
       </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
-      <c r="K112" t="s">
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>109</v>
       </c>
       <c r="B113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" t="s">
         <v>37</v>
       </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
       <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
         <v>9</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>8</v>
       </c>
-      <c r="F113">
-        <v>6</v>
-      </c>
       <c r="G113">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>8</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>16</v>
       </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
-      <c r="K113" t="s">
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114">
-        <v>4</v>
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <v>9</v>
       </c>
       <c r="F114">
+        <v>9</v>
+      </c>
+      <c r="G114">
         <v>15</v>
       </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
       <c r="H114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114">
         <v>5</v>
       </c>
-      <c r="J114">
-        <v>2</v>
-      </c>
-      <c r="K114" t="s">
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115">
-        <v>4</v>
+        <v>133</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
       </c>
       <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
         <v>18</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>7</v>
       </c>
-      <c r="F115">
-        <v>10</v>
-      </c>
       <c r="G115">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>8</v>
       </c>
-      <c r="I115">
-        <v>10</v>
-      </c>
       <c r="J115">
+        <v>10</v>
+      </c>
+      <c r="K115">
         <v>0</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116">
-        <v>3</v>
+        <v>196</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
       </c>
       <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
         <v>27</v>
       </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
       <c r="F116">
+        <v>6</v>
+      </c>
+      <c r="G116">
         <v>13</v>
       </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
       <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
         <v>14</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>12</v>
       </c>
-      <c r="J116">
-        <v>2</v>
-      </c>
-      <c r="K116" t="s">
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
+        <v>197</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
       </c>
       <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
         <v>13.5</v>
       </c>
-      <c r="E117">
-        <v>6</v>
-      </c>
       <c r="F117">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
         <v>9</v>
       </c>
-      <c r="J117">
-        <v>3</v>
-      </c>
-      <c r="K117" t="s">
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
       </c>
       <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
         <v>13.5</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>5</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>11</v>
       </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
       <c r="H118">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>10</v>
       </c>
       <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118" t="s">
+        <v>10</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
       </c>
       <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
         <v>9</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>8</v>
       </c>
-      <c r="F119">
-        <v>10</v>
-      </c>
       <c r="G119">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>8</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>9</v>
       </c>
-      <c r="J119">
-        <v>2</v>
-      </c>
-      <c r="K119" t="s">
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>71</v>
       </c>
       <c r="B120" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" t="s">
         <v>72</v>
       </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
       <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
         <v>9</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>7</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>15</v>
       </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
       <c r="H120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="K120" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>73</v>
       </c>
       <c r="B121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" t="s">
         <v>72</v>
       </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
       <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
         <v>13.5</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>7</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>15</v>
       </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
       <c r="H121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I121">
+        <v>10</v>
+      </c>
+      <c r="J121">
         <v>5</v>
       </c>
-      <c r="J121">
-        <v>2</v>
-      </c>
-      <c r="K121" t="s">
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>98</v>
       </c>
       <c r="B122" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" t="s">
         <v>37</v>
       </c>
-      <c r="C122">
-        <v>3</v>
-      </c>
       <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
         <v>13.5</v>
       </c>
-      <c r="E122">
-        <v>10</v>
-      </c>
       <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
         <v>8</v>
       </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
       <c r="H122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122">
         <v>9</v>
       </c>
-      <c r="J122">
-        <v>3</v>
-      </c>
-      <c r="K122" t="s">
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>111</v>
       </c>
       <c r="B123" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" t="s">
         <v>37</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
       <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
         <v>13.5</v>
       </c>
-      <c r="E123">
-        <v>10</v>
-      </c>
       <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
         <v>15</v>
       </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
+        <v>4</v>
+      </c>
+      <c r="J123">
         <v>7</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>0</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
+        <v>198</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>9</v>
       </c>
       <c r="F124">
+        <v>9</v>
+      </c>
+      <c r="G124">
         <v>12</v>
       </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
       <c r="H124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124">
         <v>7</v>
       </c>
-      <c r="J124">
-        <v>3</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
       </c>
       <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
         <v>13.5</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>8</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>13</v>
       </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
         <v>8</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>9</v>
       </c>
-      <c r="J125">
-        <v>3</v>
-      </c>
-      <c r="K125" t="s">
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
       </c>
       <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
         <v>18</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>9</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>8</v>
       </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
         <v>8</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>9</v>
       </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
-      <c r="K126" t="s">
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>9</v>
       </c>
       <c r="F127">
+        <v>9</v>
+      </c>
+      <c r="G127">
         <v>8</v>
       </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
       <c r="H127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>6</v>
       </c>
       <c r="J127">
-        <v>3</v>
-      </c>
-      <c r="K127" t="s">
+        <v>6</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
       </c>
       <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
         <v>9</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>8</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>16</v>
       </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
       <c r="H128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J128">
-        <v>2</v>
-      </c>
-      <c r="K128" t="s">
+        <v>6</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
       </c>
       <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
         <v>9</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>8</v>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J129">
-        <v>2</v>
-      </c>
-      <c r="K129" t="s">
+        <v>6</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
       </c>
       <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
         <v>4.5</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>-8</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>15</v>
       </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
       <c r="H130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I130">
+        <v>6</v>
+      </c>
+      <c r="J130">
         <v>14</v>
       </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
       </c>
       <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
         <v>4.5</v>
       </c>
-      <c r="E131">
-        <v>10</v>
-      </c>
       <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131">
         <v>15</v>
       </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
         <v>5</v>
       </c>
-      <c r="J131">
-        <v>1</v>
-      </c>
-      <c r="K131" t="s">
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>177</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
       </c>
       <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
         <v>4.5</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>9</v>
       </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
       <c r="G132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I132">
+        <v>6</v>
+      </c>
+      <c r="J132">
         <v>255</v>
       </c>
-      <c r="J132">
-        <v>3</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132" t="s">
         <v>16</v>
       </c>
     </row>
